--- a/spec/fixtures/import/ch.xlsx
+++ b/spec/fixtures/import/ch.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flip/Clients/coyote/spec/fixtures/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8A74E-3872-574A-8049-FAC939DC899F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA133F1-C2C7-A149-98A1-3339DFFAFA66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="64000" windowHeight="36000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coyote Resources" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Other Resources" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="352">
   <si>
     <t>Collection</t>
   </si>
@@ -1167,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1225,6 +1226,12 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,10 +1450,376 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="14.5" style="3"/>
+    <col min="6" max="6" width="14.5" style="28"/>
+    <col min="7" max="16384" width="14.5" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44005.739583333336</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="13">
+        <v>43992.416666666664</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44014.677083333336</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="21">
+        <v>43977.5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883E01CD-C0EA-2F49-8C6A-68DBFED59C92}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4291,89 +4664,89 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G30" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D31" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D32" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G32" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D33" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D34" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G34" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D35" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G35" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D36" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G36" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D37" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G37" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D38" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G38" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D39" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G39" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D40" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G40" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D41" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G41" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D42" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G42" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D43" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G43" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D44" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G44" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D45" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G45" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D46" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G46" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D47" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G47" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D48" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G48" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D49" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G49" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D50" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G50" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D51" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G51" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D52" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G52" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D53" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G53" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D54" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G54" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D55" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G55" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{11B79B1C-BF91-EA47-A0C1-BCDD1577CB7C}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{31FCF9AF-3EFF-E643-B7B8-3A301AA79E71}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{12812234-AB88-3543-B061-9F857AA133FA}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{74E8E9D1-2758-1B4C-A596-DE9D199329C0}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{8684B0AE-733C-7C4D-93BA-8D6DDC1BDD88}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{4A3CAED1-D204-BD45-9C81-034D38F7672C}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{F2AE59C3-FCAA-8B44-A18F-CBA038DDAECD}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{AF4C2A8E-CF38-834D-82AD-4B6BC6378889}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{106312F0-6E6E-E045-BA09-ED79078F5D36}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{871DB306-A0D3-224B-AA6A-2D4B22F8063F}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{2AC88141-6145-244F-8D7E-FF7F0347276A}"/>
+    <hyperlink ref="G7" r:id="rId12" xr:uid="{8771CF75-6BD7-B344-8930-271EE218E70B}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{A6DB258A-A551-3749-A4A4-8A3C488A8BB5}"/>
+    <hyperlink ref="G8" r:id="rId14" xr:uid="{BE433D11-1CBD-144D-8C0D-56C2A89C7135}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{AB1E205D-B23D-E44D-9AC3-62CB37DB1874}"/>
+    <hyperlink ref="G9" r:id="rId16" xr:uid="{9CA14026-393F-DB46-8B2C-192D4C69D1D3}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{A9C86029-0528-7549-A26F-31F71D47BABC}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{45325793-F0AE-F141-B0C8-D42F7A071C26}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{992D16A7-873D-D94B-822C-9E65E7276E8F}"/>
+    <hyperlink ref="G13" r:id="rId20" xr:uid="{B08C72A0-9C4D-E749-BB00-41E6B54FD292}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{5D6AD20A-0981-1744-94A7-FFA23EBAA236}"/>
+    <hyperlink ref="D25" r:id="rId22" xr:uid="{E966DA70-00E3-084E-B6F9-82F1AFACEF02}"/>
+    <hyperlink ref="G25" r:id="rId23" xr:uid="{93535C73-191C-D742-B594-F9D450571DEE}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{F4825879-0A5E-CC42-AD72-1335E9270B07}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{68290DC3-DA2E-624C-886C-4F1F680A0D01}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{5901B7A4-2584-3A4F-BB69-04CD67BE9A15}"/>
+    <hyperlink ref="G27" r:id="rId27" xr:uid="{D93E54DD-7A3D-3245-BC3A-E184AAB7D66D}"/>
+    <hyperlink ref="D28" r:id="rId28" xr:uid="{54E106B1-0233-9C45-B485-34C5802AD07B}"/>
+    <hyperlink ref="G28" r:id="rId29" xr:uid="{82CAD898-832D-8C4B-9B42-E4752E29AFC2}"/>
+    <hyperlink ref="D29" r:id="rId30" xr:uid="{CCABD600-AECC-614A-A535-7E31BADE7989}"/>
+    <hyperlink ref="G29" r:id="rId31" xr:uid="{605C3EE9-6DB3-694E-85F4-BA87FC3AAE73}"/>
+    <hyperlink ref="D30" r:id="rId32" xr:uid="{7FB112BE-8F80-C541-849C-377517294813}"/>
+    <hyperlink ref="G30" r:id="rId33" xr:uid="{AB669939-E9AD-F545-9D3B-50E54EF160CC}"/>
+    <hyperlink ref="D31" r:id="rId34" xr:uid="{34546B64-4087-C34F-9659-0F6CE21A40E2}"/>
+    <hyperlink ref="G31" r:id="rId35" xr:uid="{91F8FC1D-52F2-5146-8B36-7F26C3D8EE71}"/>
+    <hyperlink ref="D32" r:id="rId36" xr:uid="{4A2BE022-CC67-CF4D-A845-45F394F92CF6}"/>
+    <hyperlink ref="G32" r:id="rId37" xr:uid="{08860E11-E97C-0B43-9A71-C9E48B1DE89F}"/>
+    <hyperlink ref="D33" r:id="rId38" xr:uid="{F285D349-0880-504F-AAC9-6704050EC544}"/>
+    <hyperlink ref="G33" r:id="rId39" xr:uid="{FBC82852-F4FA-454B-A7D6-590736D36224}"/>
+    <hyperlink ref="D34" r:id="rId40" xr:uid="{1EF8A708-E01C-DD48-80CE-0E6AD1EF5181}"/>
+    <hyperlink ref="G34" r:id="rId41" xr:uid="{10C45FD9-2310-3E49-87C7-464053762BF5}"/>
+    <hyperlink ref="D35" r:id="rId42" xr:uid="{3756AD6E-B7F8-2C45-9EFD-AF167A522936}"/>
+    <hyperlink ref="G35" r:id="rId43" xr:uid="{C2FEEB69-574E-C145-B36D-2E9D69E69037}"/>
+    <hyperlink ref="D36" r:id="rId44" xr:uid="{1D651654-F5C4-3B47-B325-40505FCDDD7C}"/>
+    <hyperlink ref="G36" r:id="rId45" xr:uid="{E5D2C2F6-5A09-B140-AD2A-626199D2562D}"/>
+    <hyperlink ref="D37" r:id="rId46" xr:uid="{D7F1CC70-8E97-304A-8D3D-87D6126E7927}"/>
+    <hyperlink ref="G37" r:id="rId47" xr:uid="{6224F457-63F9-9A41-BDDE-66239C2A218A}"/>
+    <hyperlink ref="D38" r:id="rId48" xr:uid="{190FE100-A54D-604F-A916-F3B100516FD0}"/>
+    <hyperlink ref="G38" r:id="rId49" xr:uid="{084B3DEE-B022-0A4D-862C-C68369A67132}"/>
+    <hyperlink ref="D39" r:id="rId50" xr:uid="{70431B29-1C7C-FA46-9AE8-73290264EA1A}"/>
+    <hyperlink ref="G39" r:id="rId51" xr:uid="{CB29763A-82F1-624E-923D-A2A3B95E447D}"/>
+    <hyperlink ref="D40" r:id="rId52" xr:uid="{0B979148-4525-5342-BAA9-E13FE9D4525A}"/>
+    <hyperlink ref="G40" r:id="rId53" xr:uid="{DF0C70EC-5580-A241-A45B-D9A1AD2FECF6}"/>
+    <hyperlink ref="D41" r:id="rId54" xr:uid="{A2B86B59-7CDF-E946-9EA0-2162FBFE913E}"/>
+    <hyperlink ref="G41" r:id="rId55" xr:uid="{23BC2C2D-6C96-734C-B885-4DB99086D669}"/>
+    <hyperlink ref="D42" r:id="rId56" xr:uid="{F9611A90-55B9-DA49-9B93-CE93EF117669}"/>
+    <hyperlink ref="G42" r:id="rId57" xr:uid="{28D24FA7-834C-0245-8C71-A6270D1DFA9F}"/>
+    <hyperlink ref="D43" r:id="rId58" xr:uid="{BADCD797-62A0-A141-822D-4F7E0082B9B4}"/>
+    <hyperlink ref="G43" r:id="rId59" xr:uid="{9B29DF9E-553E-8F42-B8D5-6AC7236EB984}"/>
+    <hyperlink ref="D44" r:id="rId60" xr:uid="{9F0C2D98-9DFC-B64F-BE0D-CEDB1513BE99}"/>
+    <hyperlink ref="G44" r:id="rId61" xr:uid="{BC27777E-7FB5-AF41-958D-4057FEA58C48}"/>
+    <hyperlink ref="D45" r:id="rId62" xr:uid="{B9910473-89CC-D244-B821-243DAA299E86}"/>
+    <hyperlink ref="G45" r:id="rId63" xr:uid="{52496B48-C8D1-E349-8CDA-AF89D5BA1333}"/>
+    <hyperlink ref="D46" r:id="rId64" xr:uid="{45053560-CAB7-D847-BC61-4A9CC2834ADF}"/>
+    <hyperlink ref="G46" r:id="rId65" xr:uid="{0EBE7FAF-CE14-9846-A3DF-C65A9CCE311D}"/>
+    <hyperlink ref="D47" r:id="rId66" xr:uid="{775901E9-91BC-C94F-859D-D5AEB023C216}"/>
+    <hyperlink ref="G47" r:id="rId67" xr:uid="{A509FD5E-EACD-2E4E-95E1-F8073EB1717E}"/>
+    <hyperlink ref="D48" r:id="rId68" xr:uid="{EB50C733-B4BC-164C-9954-1DE039F93B38}"/>
+    <hyperlink ref="G48" r:id="rId69" xr:uid="{54C517AD-686E-034D-9EB1-479DA9D013BC}"/>
+    <hyperlink ref="D49" r:id="rId70" xr:uid="{19E355F3-6AFC-F44C-A1E4-1FB32EE5D0E0}"/>
+    <hyperlink ref="G49" r:id="rId71" xr:uid="{BC355565-56CE-2547-AF06-8610F78678CB}"/>
+    <hyperlink ref="D50" r:id="rId72" xr:uid="{A6AAD2D9-16D8-604B-806B-8E373770F490}"/>
+    <hyperlink ref="G50" r:id="rId73" xr:uid="{14DC914D-E86F-F844-9E12-7EF7839A4070}"/>
+    <hyperlink ref="D51" r:id="rId74" xr:uid="{6441EA05-3B35-E14B-90CA-BEEF6B76FEC4}"/>
+    <hyperlink ref="G51" r:id="rId75" xr:uid="{E21AFF77-33D3-374E-9E57-C44967F91F9F}"/>
+    <hyperlink ref="D52" r:id="rId76" xr:uid="{0E033966-1CF1-2F40-8014-6E1DF68A8F64}"/>
+    <hyperlink ref="G52" r:id="rId77" xr:uid="{4F51D5E4-E354-3F45-9744-C2954B9F18F8}"/>
+    <hyperlink ref="D53" r:id="rId78" xr:uid="{7BE9F792-DB2D-954C-960D-CE06AA49CAA0}"/>
+    <hyperlink ref="G53" r:id="rId79" xr:uid="{D67C4F3E-C47F-0E4E-A22B-069E2690903C}"/>
+    <hyperlink ref="D54" r:id="rId80" xr:uid="{E52D0D3D-830B-A64F-8880-3326C481B7DA}"/>
+    <hyperlink ref="G54" r:id="rId81" xr:uid="{67B96DF7-740D-CB44-9BCA-D80209BF1EAC}"/>
+    <hyperlink ref="D55" r:id="rId82" xr:uid="{B01CDBCB-1473-3B45-9590-75ABC64FEE48}"/>
+    <hyperlink ref="G55" r:id="rId83" xr:uid="{E8D9F500-1195-7A4F-BDCD-0A46D0BE6DA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
